--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B2DE6-6031-4A2C-B71D-0208BE7991D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B927B8-6260-4C48-BB9A-D63A2FDEE730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="limit_dimension_pu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="152">
-  <si>
-    <t>hodnoty_S</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
   <si>
     <t>0.005</t>
   </si>
@@ -492,16 +490,100 @@
   </si>
   <si>
     <t>0.271</t>
+  </si>
+  <si>
+    <t>tabulka 9 - největší dovolené rozměry požárních úseků s konstrukčními systémy nehořlavými 
+m</t>
+  </si>
+  <si>
+    <t>tabulka 10 - největší dovolené rozměry požárních úseků s konstrukčními systémy smíšenými 
+m</t>
+  </si>
+  <si>
+    <t>tabulka 11 - největší dovolené rozměry požárních úseků s konstrukčními systémy hořlavými 
+m</t>
+  </si>
+  <si>
+    <t>Součinitel a požárního úseku</t>
+  </si>
+  <si>
+    <t>Objekt o jednom nadzemním podlaží</t>
+  </si>
+  <si>
+    <t>Objekty o více nadzemních podlažích</t>
+  </si>
+  <si>
+    <t>Výšková poloha požárního úseku hp 
+m</t>
+  </si>
+  <si>
+    <t>≤22,5</t>
+  </si>
+  <si>
+    <t>≥45</t>
+  </si>
+  <si>
+    <t>délka</t>
+  </si>
+  <si>
+    <t>šířka</t>
+  </si>
+  <si>
+    <t>≤0,3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,7 +597,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -603,11 +685,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -618,12 +885,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,1083 +1364,1083 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10">
         <v>750</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
         <v>1000</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <v>2000</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <v>4000</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>3.6</v>
+      </c>
+      <c r="C26">
+        <v>3.6</v>
+      </c>
+      <c r="D26">
+        <v>3.6</v>
+      </c>
+      <c r="E26">
+        <v>3.6</v>
+      </c>
+      <c r="F26">
+        <v>3.6</v>
+      </c>
+      <c r="G26">
+        <v>3.6</v>
+      </c>
+      <c r="H26">
+        <v>3.6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="D26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="E26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="F26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="G26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="H26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="I26" s="10">
-        <v>45080</v>
-      </c>
-      <c r="J26" s="11">
-        <v>45080</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>9</v>
+      <c r="B28" t="s">
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>125</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
         <v>129</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
         <v>133</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="I34" t="s">
+      <c r="D36" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
         <v>77</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I37" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
       </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G38" t="s">
         <v>103</v>
       </c>
-      <c r="I35" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="E38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
         <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="H39" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
         <v>141</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
         <v>144</v>
@@ -2033,194 +2451,1414 @@
       <c r="H41" t="s">
         <v>146</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="H42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
         <v>147</v>
       </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>149</v>
       </c>
-      <c r="E43" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>145</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
       </c>
       <c r="C44" t="s">
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G44" t="s">
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>121</v>
+      <c r="B47" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F3653-9DA6-421B-8DA2-1B05E90270F0}">
+  <dimension ref="A1:AF18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
+      <c r="W1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="W3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="35"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="35"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="35"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40">
+        <v>45</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="43"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" s="23"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="49">
+        <v>160</v>
+      </c>
+      <c r="D8" s="49">
+        <v>100</v>
+      </c>
+      <c r="E8" s="49">
+        <v>115</v>
+      </c>
+      <c r="F8" s="49">
+        <v>60</v>
+      </c>
+      <c r="G8" s="49">
+        <v>75</v>
+      </c>
+      <c r="H8" s="49">
+        <v>50</v>
+      </c>
+      <c r="I8" s="49">
+        <v>50</v>
+      </c>
+      <c r="J8" s="50">
+        <v>35</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="51">
+        <v>112.5</v>
+      </c>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51">
+        <v>80</v>
+      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51">
+        <v>50</v>
+      </c>
+      <c r="U8" s="52"/>
+      <c r="W8" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="51">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51">
+        <v>65</v>
+      </c>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="52"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="49">
+        <v>150</v>
+      </c>
+      <c r="D9" s="49">
+        <v>95</v>
+      </c>
+      <c r="E9" s="49">
+        <v>107.5</v>
+      </c>
+      <c r="F9" s="49">
+        <v>60</v>
+      </c>
+      <c r="G9" s="49">
+        <v>70</v>
+      </c>
+      <c r="H9" s="49">
+        <v>47.5</v>
+      </c>
+      <c r="I9" s="49">
+        <v>45</v>
+      </c>
+      <c r="J9" s="50">
+        <v>30</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="51">
+        <v>112.5</v>
+      </c>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51">
+        <v>80</v>
+      </c>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51">
+        <v>50</v>
+      </c>
+      <c r="U9" s="52"/>
+      <c r="W9" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="51">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51">
+        <v>70</v>
+      </c>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="52"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="49">
+        <v>140</v>
+      </c>
+      <c r="D10" s="49">
+        <v>90</v>
+      </c>
+      <c r="E10" s="49">
+        <v>100</v>
+      </c>
+      <c r="F10" s="49">
+        <v>60</v>
+      </c>
+      <c r="G10" s="49">
+        <v>65</v>
+      </c>
+      <c r="H10" s="49">
+        <v>45</v>
+      </c>
+      <c r="I10" s="49">
+        <v>40</v>
+      </c>
+      <c r="J10" s="50">
+        <v>27</v>
+      </c>
+      <c r="L10" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="51">
+        <v>112.5</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51">
+        <v>80</v>
+      </c>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51">
+        <v>50</v>
+      </c>
+      <c r="U10" s="52"/>
+      <c r="W10" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="51">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="52"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="49">
+        <v>130</v>
+      </c>
+      <c r="D11" s="49">
+        <v>85</v>
+      </c>
+      <c r="E11" s="49">
+        <v>92.5</v>
+      </c>
+      <c r="F11" s="49">
+        <v>56</v>
+      </c>
+      <c r="G11" s="49">
+        <v>60</v>
+      </c>
+      <c r="H11" s="49">
+        <v>42.5</v>
+      </c>
+      <c r="I11" s="49">
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="50">
+        <v>25.5</v>
+      </c>
+      <c r="L11" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="54"/>
+      <c r="N11" s="51">
+        <v>105</v>
+      </c>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51">
+        <v>74</v>
+      </c>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51">
+        <v>47</v>
+      </c>
+      <c r="U11" s="52"/>
+      <c r="W11" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="51">
+        <v>84</v>
+      </c>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51">
+        <v>56.5</v>
+      </c>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51">
+        <v>37.5</v>
+      </c>
+      <c r="AF11" s="52"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="49">
+        <v>120</v>
+      </c>
+      <c r="D12" s="49">
+        <v>80</v>
+      </c>
+      <c r="E12" s="49">
+        <v>85</v>
+      </c>
+      <c r="F12" s="49">
+        <v>52</v>
+      </c>
+      <c r="G12" s="49">
+        <v>55</v>
+      </c>
+      <c r="H12" s="49">
+        <v>40</v>
+      </c>
+      <c r="I12" s="49">
+        <v>35</v>
+      </c>
+      <c r="J12" s="50">
+        <v>24</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="51">
+        <v>97.5</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51">
+        <v>68</v>
+      </c>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51">
+        <v>44</v>
+      </c>
+      <c r="U12" s="52"/>
+      <c r="W12" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="51">
+        <v>78</v>
+      </c>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51">
+        <v>60</v>
+      </c>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="52"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="49">
+        <v>110</v>
+      </c>
+      <c r="D13" s="49">
+        <v>75</v>
+      </c>
+      <c r="E13" s="49">
+        <v>77.5</v>
+      </c>
+      <c r="F13" s="49">
+        <v>48</v>
+      </c>
+      <c r="G13" s="49">
+        <v>50</v>
+      </c>
+      <c r="H13" s="49">
+        <v>37.5</v>
+      </c>
+      <c r="I13" s="49">
+        <v>32.5</v>
+      </c>
+      <c r="J13" s="50">
+        <v>22.5</v>
+      </c>
+      <c r="L13" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="51">
+        <v>90</v>
+      </c>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51">
+        <v>62</v>
+      </c>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51">
+        <v>41</v>
+      </c>
+      <c r="U13" s="52"/>
+      <c r="W13" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="51">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51">
+        <v>49.5</v>
+      </c>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51">
+        <v>32.5</v>
+      </c>
+      <c r="AF13" s="52"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="49">
+        <v>100</v>
+      </c>
+      <c r="D14" s="49">
+        <v>70</v>
+      </c>
+      <c r="E14" s="49">
+        <v>70</v>
+      </c>
+      <c r="F14" s="49">
+        <v>44</v>
+      </c>
+      <c r="G14" s="49">
+        <v>45</v>
+      </c>
+      <c r="H14" s="49">
+        <v>35</v>
+      </c>
+      <c r="I14" s="49">
+        <v>30</v>
+      </c>
+      <c r="J14" s="50">
+        <v>21</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="51">
+        <v>82.5</v>
+      </c>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51">
+        <v>56</v>
+      </c>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51">
+        <v>38</v>
+      </c>
+      <c r="U14" s="52"/>
+      <c r="W14" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="51">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="52"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
+        <v>1</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="49">
+        <v>90</v>
+      </c>
+      <c r="D15" s="49">
+        <v>65</v>
+      </c>
+      <c r="E15" s="49">
+        <v>62.5</v>
+      </c>
+      <c r="F15" s="49">
+        <v>40</v>
+      </c>
+      <c r="G15" s="49">
+        <v>40</v>
+      </c>
+      <c r="H15" s="49">
+        <v>32.5</v>
+      </c>
+      <c r="I15" s="49">
+        <v>27.5</v>
+      </c>
+      <c r="J15" s="50">
+        <v>19.5</v>
+      </c>
+      <c r="L15" s="53">
+        <v>1</v>
+      </c>
+      <c r="M15" s="54"/>
+      <c r="N15" s="51">
+        <v>75</v>
+      </c>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51">
+        <v>50</v>
+      </c>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51">
+        <v>35</v>
+      </c>
+      <c r="U15" s="52"/>
+      <c r="W15" s="53">
+        <v>1</v>
+      </c>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="51">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51">
+        <v>42.5</v>
+      </c>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51">
+        <v>27.5</v>
+      </c>
+      <c r="AF15" s="52"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="49">
+        <v>80</v>
+      </c>
+      <c r="D16" s="49">
+        <v>60</v>
+      </c>
+      <c r="E16" s="49">
+        <v>55</v>
+      </c>
+      <c r="F16" s="49">
+        <v>36</v>
+      </c>
+      <c r="G16" s="49">
+        <v>35</v>
+      </c>
+      <c r="H16" s="49">
+        <v>30</v>
+      </c>
+      <c r="I16" s="49">
+        <v>25</v>
+      </c>
+      <c r="J16" s="50">
+        <v>18</v>
+      </c>
+      <c r="L16" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="54"/>
+      <c r="N16" s="51">
+        <v>67.5</v>
+      </c>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51">
+        <v>44</v>
+      </c>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51">
+        <v>32</v>
+      </c>
+      <c r="U16" s="52"/>
+      <c r="W16" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="51">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51">
+        <v>40</v>
+      </c>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51">
+        <v>25</v>
+      </c>
+      <c r="AF16" s="52"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="49">
+        <v>70</v>
+      </c>
+      <c r="D17" s="49">
+        <v>55</v>
+      </c>
+      <c r="E17" s="49">
+        <v>47.5</v>
+      </c>
+      <c r="F17" s="49">
+        <v>32</v>
+      </c>
+      <c r="G17" s="49">
+        <v>30</v>
+      </c>
+      <c r="H17" s="49">
+        <v>27.5</v>
+      </c>
+      <c r="I17" s="49">
+        <v>22.5</v>
+      </c>
+      <c r="J17" s="50">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="M17" s="54"/>
+      <c r="N17" s="51">
+        <v>60</v>
+      </c>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51">
+        <v>38</v>
+      </c>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51">
+        <v>29</v>
+      </c>
+      <c r="U17" s="52"/>
+      <c r="W17" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="51">
+        <v>48</v>
+      </c>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51">
+        <v>35.5</v>
+      </c>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51">
+        <v>22.5</v>
+      </c>
+      <c r="AF17" s="52"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="57">
+        <v>60</v>
+      </c>
+      <c r="D18" s="57">
+        <v>50</v>
+      </c>
+      <c r="E18" s="57">
+        <v>40</v>
+      </c>
+      <c r="F18" s="57">
+        <v>28</v>
+      </c>
+      <c r="G18" s="57">
+        <v>25</v>
+      </c>
+      <c r="H18" s="57">
+        <v>25</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="M18" s="56"/>
+      <c r="N18" s="59">
+        <v>52.5</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59">
+        <v>32</v>
+      </c>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59">
+        <v>26</v>
+      </c>
+      <c r="U18" s="60"/>
+      <c r="W18" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="59">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59">
+        <v>32</v>
+      </c>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59">
+        <v>20</v>
+      </c>
+      <c r="AF18" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="145">
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y3:AB6"/>
+    <mergeCell ref="AC3:AF6"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="W1:AF2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="N3:Q6"/>
+    <mergeCell ref="R3:U6"/>
+    <mergeCell ref="W3:X7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\PycharmProjects\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\PBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B927B8-6260-4C48-BB9A-D63A2FDEE730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96359F-0D05-4B53-B19F-CD4935A3372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5520" windowWidth="28800" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
   <si>
     <t>0.005</t>
   </si>
@@ -532,9 +532,6 @@
     <t>≤0,3</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.4</t>
   </si>
   <si>
@@ -560,6 +557,48 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>≤0.3</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>97.5</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
   </si>
 </sst>
 </file>
@@ -874,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -885,111 +924,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,10 +1060,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1072,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,22 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1382,10 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1565,7 +1617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -1652,7 +1704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1710,7 +1762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1739,7 +1791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -1768,7 +1820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -1797,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
@@ -1826,7 +1878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1884,7 +1936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>110</v>
       </c>
@@ -1913,7 +1965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>116</v>
       </c>
@@ -1942,7 +1994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -1971,27 +2023,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="10">
+      <c r="B25" s="19">
         <v>750</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19">
         <v>1000</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19">
         <v>2000</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19">
         <v>4000</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2020,7 +2072,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2165,7 +2217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -2194,7 +2246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -2223,7 +2275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2304,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -2281,7 +2333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -2310,7 +2362,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2339,7 +2391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2368,7 +2420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +2449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
@@ -2426,7 +2478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>64</v>
       </c>
@@ -2455,7 +2507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -2484,7 +2536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
@@ -2513,7 +2565,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -2542,7 +2594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>116</v>
       </c>
@@ -2600,7 +2652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2642,1073 +2694,1079 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F3653-9DA6-421B-8DA2-1B05E90270F0}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="12" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-      <c r="W1" s="12" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
+      <c r="W1" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="18"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="45"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="L3" s="19" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
-      <c r="W3" s="19" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="W3" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="X3" s="20"/>
+      <c r="X3" s="47"/>
       <c r="Y3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="26"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30" t="s">
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="35"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="30"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="35"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40">
+      <c r="F6" s="39"/>
+      <c r="G6" s="38">
         <v>45</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="43"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="43"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="44" t="s">
+      <c r="J6" s="40"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="32"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="51"/>
+      <c r="P7" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="39"/>
+      <c r="R7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22" t="s">
+      <c r="S7" s="51"/>
+      <c r="T7" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40" t="s">
+      <c r="U7" s="40"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22" t="s">
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="40" t="s">
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22" t="s">
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="AF7" s="23"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="49">
+      <c r="B8" s="53"/>
+      <c r="C8" s="14">
         <v>160</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="14">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="14">
         <v>115</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="14">
         <v>60</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="14">
         <v>75</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="14">
         <v>50</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="14">
         <v>50</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="15">
         <v>35</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="51">
-        <v>112.5</v>
-      </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51">
+      <c r="M8" s="55"/>
+      <c r="N8" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56">
         <v>76</v>
       </c>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51">
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56">
         <v>80</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51">
+      <c r="S8" s="56"/>
+      <c r="T8" s="56">
         <v>50</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="W8" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="51">
+      <c r="U8" s="57"/>
+      <c r="W8" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56">
         <v>90</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51">
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56">
         <v>65</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51">
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56">
         <v>70</v>
       </c>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51">
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56">
         <v>40</v>
       </c>
-      <c r="AF8" s="52"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="AF8" s="57"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="14">
+        <v>150</v>
+      </c>
+      <c r="D9" s="14">
+        <v>95</v>
+      </c>
+      <c r="E9" s="14">
+        <v>107.5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>70</v>
+      </c>
+      <c r="H9" s="14">
+        <v>47.5</v>
+      </c>
+      <c r="I9" s="14">
+        <v>45</v>
+      </c>
+      <c r="J9" s="15">
+        <v>30</v>
+      </c>
+      <c r="L9" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56">
+        <v>80</v>
+      </c>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56">
+        <v>50</v>
+      </c>
+      <c r="U9" s="57"/>
+      <c r="W9" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="56">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56">
+        <v>70</v>
+      </c>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="57"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="49">
-        <v>150</v>
-      </c>
-      <c r="D9" s="49">
-        <v>95</v>
-      </c>
-      <c r="E9" s="49">
-        <v>107.5</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="B10" s="59"/>
+      <c r="C10" s="14">
+        <v>140</v>
+      </c>
+      <c r="D10" s="14">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14">
         <v>60</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G10" s="14">
+        <v>65</v>
+      </c>
+      <c r="H10" s="14">
+        <v>45</v>
+      </c>
+      <c r="I10" s="14">
+        <v>40</v>
+      </c>
+      <c r="J10" s="15">
+        <v>27</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56">
+        <v>80</v>
+      </c>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56">
+        <v>50</v>
+      </c>
+      <c r="U10" s="57"/>
+      <c r="W10" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="56">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56">
         <v>70</v>
       </c>
-      <c r="H9" s="49">
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="57"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="14">
+        <v>130</v>
+      </c>
+      <c r="D11" s="14">
+        <v>85</v>
+      </c>
+      <c r="E11" s="14">
+        <v>92.5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>56</v>
+      </c>
+      <c r="G11" s="14">
+        <v>60</v>
+      </c>
+      <c r="H11" s="14">
+        <v>42.5</v>
+      </c>
+      <c r="I11" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>25.5</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="61"/>
+      <c r="N11" s="56">
+        <v>105</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56">
+        <v>74</v>
+      </c>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56">
+        <v>47</v>
+      </c>
+      <c r="U11" s="57"/>
+      <c r="W11" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="56">
+        <v>84</v>
+      </c>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF11" s="57"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="14">
+        <v>120</v>
+      </c>
+      <c r="D12" s="14">
+        <v>80</v>
+      </c>
+      <c r="E12" s="14">
+        <v>85</v>
+      </c>
+      <c r="F12" s="14">
+        <v>52</v>
+      </c>
+      <c r="G12" s="14">
+        <v>55</v>
+      </c>
+      <c r="H12" s="14">
+        <v>40</v>
+      </c>
+      <c r="I12" s="14">
+        <v>35</v>
+      </c>
+      <c r="J12" s="15">
+        <v>24</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56">
+        <v>68</v>
+      </c>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56">
+        <v>44</v>
+      </c>
+      <c r="U12" s="57"/>
+      <c r="W12" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="56">
+        <v>78</v>
+      </c>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56">
+        <v>60</v>
+      </c>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="57"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="14">
+        <v>110</v>
+      </c>
+      <c r="D13" s="14">
+        <v>75</v>
+      </c>
+      <c r="E13" s="14">
+        <v>77.5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14">
+        <v>50</v>
+      </c>
+      <c r="H13" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="I13" s="14">
+        <v>32.5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>22.5</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="56">
+        <v>90</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56">
+        <v>62</v>
+      </c>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56">
+        <v>41</v>
+      </c>
+      <c r="U13" s="57"/>
+      <c r="W13" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="56">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF13" s="57"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="14">
+        <v>70</v>
+      </c>
+      <c r="E14" s="14">
+        <v>70</v>
+      </c>
+      <c r="F14" s="14">
+        <v>44</v>
+      </c>
+      <c r="G14" s="14">
+        <v>45</v>
+      </c>
+      <c r="H14" s="14">
+        <v>35</v>
+      </c>
+      <c r="I14" s="14">
+        <v>30</v>
+      </c>
+      <c r="J14" s="15">
+        <v>21</v>
+      </c>
+      <c r="L14" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56">
+        <v>56</v>
+      </c>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56">
+        <v>38</v>
+      </c>
+      <c r="U14" s="57"/>
+      <c r="W14" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="56">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="57"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
+        <v>1</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="14">
+        <v>90</v>
+      </c>
+      <c r="D15" s="14">
+        <v>65</v>
+      </c>
+      <c r="E15" s="14">
+        <v>62.5</v>
+      </c>
+      <c r="F15" s="14">
+        <v>40</v>
+      </c>
+      <c r="G15" s="14">
+        <v>40</v>
+      </c>
+      <c r="H15" s="14">
+        <v>32.5</v>
+      </c>
+      <c r="I15" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="J15" s="15">
+        <v>19.5</v>
+      </c>
+      <c r="L15" s="60">
+        <v>1</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="56">
+        <v>75</v>
+      </c>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56">
+        <v>50</v>
+      </c>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56">
+        <v>35</v>
+      </c>
+      <c r="U15" s="57"/>
+      <c r="W15" s="60">
+        <v>1</v>
+      </c>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="56">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF15" s="63"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="14">
+        <v>80</v>
+      </c>
+      <c r="D16" s="14">
+        <v>60</v>
+      </c>
+      <c r="E16" s="14">
+        <v>55</v>
+      </c>
+      <c r="F16" s="14">
+        <v>36</v>
+      </c>
+      <c r="G16" s="14">
+        <v>35</v>
+      </c>
+      <c r="H16" s="14">
+        <v>30</v>
+      </c>
+      <c r="I16" s="14">
+        <v>25</v>
+      </c>
+      <c r="J16" s="15">
+        <v>18</v>
+      </c>
+      <c r="L16" s="60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56">
+        <v>44</v>
+      </c>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56">
+        <v>32</v>
+      </c>
+      <c r="U16" s="57"/>
+      <c r="W16" s="64">
+        <v>44927</v>
+      </c>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="56">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56">
+        <v>40</v>
+      </c>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="62">
+        <v>25</v>
+      </c>
+      <c r="AF16" s="63"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="14">
+        <v>70</v>
+      </c>
+      <c r="D17" s="14">
+        <v>55</v>
+      </c>
+      <c r="E17" s="14">
         <v>47.5</v>
       </c>
-      <c r="I9" s="49">
-        <v>45</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="F17" s="14">
+        <v>32</v>
+      </c>
+      <c r="G17" s="14">
         <v>30</v>
       </c>
-      <c r="L9" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="51">
-        <v>112.5</v>
-      </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51">
-        <v>80</v>
-      </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51">
+      <c r="H17" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="I17" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="J17" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="60">
+        <v>1.2</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="56">
+        <v>60</v>
+      </c>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56">
+        <v>38</v>
+      </c>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56">
+        <v>29</v>
+      </c>
+      <c r="U17" s="57"/>
+      <c r="W17" s="64">
+        <v>44958</v>
+      </c>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="56">
+        <v>48</v>
+      </c>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF17" s="63"/>
+    </row>
+    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="16">
+        <v>60</v>
+      </c>
+      <c r="D18" s="16">
         <v>50</v>
       </c>
-      <c r="U9" s="52"/>
-      <c r="W9" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="51">
-        <v>90</v>
-      </c>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51">
-        <v>65</v>
-      </c>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51">
-        <v>70</v>
-      </c>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51">
+      <c r="E18" s="16">
         <v>40</v>
       </c>
-      <c r="AF9" s="52"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="49">
-        <v>140</v>
-      </c>
-      <c r="D10" s="49">
-        <v>90</v>
-      </c>
-      <c r="E10" s="49">
-        <v>100</v>
-      </c>
-      <c r="F10" s="49">
-        <v>60</v>
-      </c>
-      <c r="G10" s="49">
-        <v>65</v>
-      </c>
-      <c r="H10" s="49">
-        <v>45</v>
-      </c>
-      <c r="I10" s="49">
-        <v>40</v>
-      </c>
-      <c r="J10" s="50">
-        <v>27</v>
-      </c>
-      <c r="L10" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="51">
-        <v>112.5</v>
-      </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51">
-        <v>80</v>
-      </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51">
-        <v>50</v>
-      </c>
-      <c r="U10" s="52"/>
-      <c r="W10" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="51">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51">
-        <v>70</v>
-      </c>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51">
-        <v>40</v>
-      </c>
-      <c r="AF10" s="52"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="49">
-        <v>130</v>
-      </c>
-      <c r="D11" s="49">
-        <v>85</v>
-      </c>
-      <c r="E11" s="49">
-        <v>92.5</v>
-      </c>
-      <c r="F11" s="49">
-        <v>56</v>
-      </c>
-      <c r="G11" s="49">
-        <v>60</v>
-      </c>
-      <c r="H11" s="49">
-        <v>42.5</v>
-      </c>
-      <c r="I11" s="49">
-        <v>37.5</v>
-      </c>
-      <c r="J11" s="50">
-        <v>25.5</v>
-      </c>
-      <c r="L11" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="51">
-        <v>105</v>
-      </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51">
-        <v>74</v>
-      </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51">
-        <v>47</v>
-      </c>
-      <c r="U11" s="52"/>
-      <c r="W11" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="51">
-        <v>84</v>
-      </c>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51">
-        <v>56.5</v>
-      </c>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51">
-        <v>37.5</v>
-      </c>
-      <c r="AF11" s="52"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="49">
-        <v>120</v>
-      </c>
-      <c r="D12" s="49">
-        <v>80</v>
-      </c>
-      <c r="E12" s="49">
-        <v>85</v>
-      </c>
-      <c r="F12" s="49">
-        <v>52</v>
-      </c>
-      <c r="G12" s="49">
-        <v>55</v>
-      </c>
-      <c r="H12" s="49">
-        <v>40</v>
-      </c>
-      <c r="I12" s="49">
-        <v>35</v>
-      </c>
-      <c r="J12" s="50">
-        <v>24</v>
-      </c>
-      <c r="L12" s="53">
-        <v>0.7</v>
-      </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="51">
-        <v>97.5</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51">
-        <v>68</v>
-      </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51">
-        <v>44</v>
-      </c>
-      <c r="U12" s="52"/>
-      <c r="W12" s="53">
-        <v>0.7</v>
-      </c>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="51">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51">
-        <v>53</v>
-      </c>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51">
-        <v>60</v>
-      </c>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51">
-        <v>35</v>
-      </c>
-      <c r="AF12" s="52"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="49">
-        <v>110</v>
-      </c>
-      <c r="D13" s="49">
-        <v>75</v>
-      </c>
-      <c r="E13" s="49">
-        <v>77.5</v>
-      </c>
-      <c r="F13" s="49">
-        <v>48</v>
-      </c>
-      <c r="G13" s="49">
-        <v>50</v>
-      </c>
-      <c r="H13" s="49">
-        <v>37.5</v>
-      </c>
-      <c r="I13" s="49">
-        <v>32.5</v>
-      </c>
-      <c r="J13" s="50">
-        <v>22.5</v>
-      </c>
-      <c r="L13" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="51">
-        <v>90</v>
-      </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51">
-        <v>62</v>
-      </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51">
-        <v>41</v>
-      </c>
-      <c r="U13" s="52"/>
-      <c r="W13" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="51">
-        <v>72</v>
-      </c>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51">
-        <v>49.5</v>
-      </c>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51">
-        <v>55</v>
-      </c>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51">
-        <v>32.5</v>
-      </c>
-      <c r="AF13" s="52"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="49">
-        <v>100</v>
-      </c>
-      <c r="D14" s="49">
-        <v>70</v>
-      </c>
-      <c r="E14" s="49">
-        <v>70</v>
-      </c>
-      <c r="F14" s="49">
-        <v>44</v>
-      </c>
-      <c r="G14" s="49">
-        <v>45</v>
-      </c>
-      <c r="H14" s="49">
-        <v>35</v>
-      </c>
-      <c r="I14" s="49">
+      <c r="F18" s="16">
+        <v>28</v>
+      </c>
+      <c r="G18" s="16">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16">
+        <v>25</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="69">
+        <v>1.3</v>
+      </c>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67">
+        <v>32</v>
+      </c>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67">
+        <v>26</v>
+      </c>
+      <c r="U18" s="68"/>
+      <c r="W18" s="65">
+        <v>44986</v>
+      </c>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="67">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67">
+        <v>32</v>
+      </c>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67">
         <v>30</v>
       </c>
-      <c r="J14" s="50">
-        <v>21</v>
-      </c>
-      <c r="L14" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="51">
-        <v>82.5</v>
-      </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51">
-        <v>56</v>
-      </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51">
-        <v>38</v>
-      </c>
-      <c r="U14" s="52"/>
-      <c r="W14" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="51">
-        <v>66</v>
-      </c>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51">
-        <v>46</v>
-      </c>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51">
-        <v>50</v>
-      </c>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51">
-        <v>30</v>
-      </c>
-      <c r="AF14" s="52"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
-        <v>1</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="49">
-        <v>90</v>
-      </c>
-      <c r="D15" s="49">
-        <v>65</v>
-      </c>
-      <c r="E15" s="49">
-        <v>62.5</v>
-      </c>
-      <c r="F15" s="49">
-        <v>40</v>
-      </c>
-      <c r="G15" s="49">
-        <v>40</v>
-      </c>
-      <c r="H15" s="49">
-        <v>32.5</v>
-      </c>
-      <c r="I15" s="49">
-        <v>27.5</v>
-      </c>
-      <c r="J15" s="50">
-        <v>19.5</v>
-      </c>
-      <c r="L15" s="53">
-        <v>1</v>
-      </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="51">
-        <v>75</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51">
-        <v>50</v>
-      </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51">
-        <v>35</v>
-      </c>
-      <c r="U15" s="52"/>
-      <c r="W15" s="53">
-        <v>1</v>
-      </c>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="51">
-        <v>60</v>
-      </c>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51">
-        <v>42.5</v>
-      </c>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51">
-        <v>45</v>
-      </c>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51">
-        <v>27.5</v>
-      </c>
-      <c r="AF15" s="52"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="49">
-        <v>80</v>
-      </c>
-      <c r="D16" s="49">
-        <v>60</v>
-      </c>
-      <c r="E16" s="49">
-        <v>55</v>
-      </c>
-      <c r="F16" s="49">
-        <v>36</v>
-      </c>
-      <c r="G16" s="49">
-        <v>35</v>
-      </c>
-      <c r="H16" s="49">
-        <v>30</v>
-      </c>
-      <c r="I16" s="49">
-        <v>25</v>
-      </c>
-      <c r="J16" s="50">
-        <v>18</v>
-      </c>
-      <c r="L16" s="53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="51">
-        <v>67.5</v>
-      </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51">
-        <v>44</v>
-      </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51">
-        <v>32</v>
-      </c>
-      <c r="U16" s="52"/>
-      <c r="W16" s="53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="51">
-        <v>54</v>
-      </c>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51">
-        <v>25</v>
-      </c>
-      <c r="AF16" s="52"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="49">
-        <v>70</v>
-      </c>
-      <c r="D17" s="49">
-        <v>55</v>
-      </c>
-      <c r="E17" s="49">
-        <v>47.5</v>
-      </c>
-      <c r="F17" s="49">
-        <v>32</v>
-      </c>
-      <c r="G17" s="49">
-        <v>30</v>
-      </c>
-      <c r="H17" s="49">
-        <v>27.5</v>
-      </c>
-      <c r="I17" s="49">
-        <v>22.5</v>
-      </c>
-      <c r="J17" s="50">
-        <v>16.5</v>
-      </c>
-      <c r="L17" s="53">
-        <v>1.2</v>
-      </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="51">
-        <v>60</v>
-      </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51">
-        <v>38</v>
-      </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51">
-        <v>29</v>
-      </c>
-      <c r="U17" s="52"/>
-      <c r="W17" s="53">
-        <v>1.2</v>
-      </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="51">
-        <v>48</v>
-      </c>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51">
-        <v>35.5</v>
-      </c>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51">
-        <v>35</v>
-      </c>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51">
-        <v>22.5</v>
-      </c>
-      <c r="AF17" s="52"/>
-    </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="57">
-        <v>60</v>
-      </c>
-      <c r="D18" s="57">
-        <v>50</v>
-      </c>
-      <c r="E18" s="57">
-        <v>40</v>
-      </c>
-      <c r="F18" s="57">
-        <v>28</v>
-      </c>
-      <c r="G18" s="57">
-        <v>25</v>
-      </c>
-      <c r="H18" s="57">
-        <v>25</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="55">
-        <v>1.3</v>
-      </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="59">
-        <v>52.5</v>
-      </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59">
-        <v>32</v>
-      </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59">
-        <v>26</v>
-      </c>
-      <c r="U18" s="60"/>
-      <c r="W18" s="55">
-        <v>1.3</v>
-      </c>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="59">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59">
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67">
         <v>20</v>
       </c>
-      <c r="AF18" s="60"/>
+      <c r="AF18" s="68"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AE21" s="18"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AE23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="145">
@@ -3734,6 +3792,7 @@
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="T16:U16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
@@ -3744,7 +3803,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
@@ -3756,6 +3814,7 @@
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="T14:U14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
@@ -3766,7 +3825,18 @@
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="Y13:Z13"/>
@@ -3778,28 +3848,7 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
@@ -3815,6 +3864,15 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AC8:AD8"/>
     <mergeCell ref="AE8:AF8"/>
@@ -3825,8 +3883,6 @@
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
@@ -3840,7 +3896,6 @@
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="Y3:AB6"/>
     <mergeCell ref="AC3:AF6"/>
     <mergeCell ref="E4:J5"/>
@@ -3857,6 +3912,9 @@
     <mergeCell ref="N3:Q6"/>
     <mergeCell ref="R3:U6"/>
     <mergeCell ref="W3:X7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA7:AB7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\PBR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96359F-0D05-4B53-B19F-CD4935A3372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE104157-C1AE-4897-9199-EA78C90EFF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5520" windowWidth="28800" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="limit_dimension_pu" sheetId="2" r:id="rId2"/>
+    <sheet name="SPB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="208">
   <si>
     <t>0.005</t>
   </si>
@@ -599,6 +600,72 @@
   </si>
   <si>
     <t>22.5</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Oa</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I.</t>
+  </si>
+  <si>
+    <t>II.</t>
+  </si>
+  <si>
+    <t>III.</t>
+  </si>
+  <si>
+    <t>IV.</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>VI.</t>
+  </si>
+  <si>
+    <t>VII.</t>
+  </si>
+  <si>
+    <t>bom.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -636,7 +703,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -909,11 +976,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -943,30 +1073,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,6 +1219,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -998,102 +1238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1382,10 +1526,10 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1414,7 +1558,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1646,7 +1790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1675,7 +1819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -1704,7 +1848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1733,7 +1877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1762,7 +1906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1791,7 +1935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -1820,7 +1964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -1849,7 +1993,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
@@ -1878,7 +2022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
@@ -1907,7 +2051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1936,7 +2080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>110</v>
       </c>
@@ -1965,7 +2109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>116</v>
       </c>
@@ -1994,7 +2138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2023,27 +2167,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="19">
+      <c r="B25" s="33">
         <v>750</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33">
         <v>1000</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
         <v>2000</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33">
         <v>4000</v>
       </c>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2072,7 +2216,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +2274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -2246,7 +2390,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2304,7 +2448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -2333,7 +2477,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -2362,7 +2506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2420,7 +2564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2622,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>64</v>
       </c>
@@ -2507,7 +2651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -2536,7 +2680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +2709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -2594,7 +2738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
@@ -2623,7 +2767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>116</v>
       </c>
@@ -2652,7 +2796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2696,241 +2840,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F3653-9DA6-421B-8DA2-1B05E90270F0}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
-      <c r="W1" s="41" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="W1" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="45"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="55"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="45"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="45"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="40"/>
-      <c r="L3" s="46" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="L3" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="27" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-      <c r="W3" s="46" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="W3" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="21" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="27" t="s">
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="28"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="33" t="s">
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="72"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="30"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="30"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="38" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="74"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="74"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="74"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38">
+      <c r="F6" s="78"/>
+      <c r="G6" s="77">
         <v>45</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="78"/>
+      <c r="I6" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="32"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50"/>
+      <c r="J6" s="68"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="76"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>160</v>
       </c>
@@ -2955,48 +3099,48 @@
       <c r="J7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="38" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51" t="s">
+      <c r="O7" s="67"/>
+      <c r="P7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51" t="s">
+      <c r="S7" s="67"/>
+      <c r="T7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="38" t="s">
+      <c r="U7" s="68"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51" t="s">
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="38" t="s">
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51" t="s">
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="AF7" s="40"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="AF7" s="68"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="14">
         <v>160</v>
       </c>
@@ -3021,52 +3165,52 @@
       <c r="J8" s="15">
         <v>35</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56" t="s">
+      <c r="M8" s="52"/>
+      <c r="N8" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42">
         <v>76</v>
       </c>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42">
         <v>80</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56">
+      <c r="S8" s="42"/>
+      <c r="T8" s="42">
         <v>50</v>
       </c>
-      <c r="U8" s="57"/>
-      <c r="W8" s="54" t="s">
+      <c r="U8" s="43"/>
+      <c r="W8" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56">
+      <c r="X8" s="52"/>
+      <c r="Y8" s="42">
         <v>90</v>
       </c>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56">
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42">
         <v>65</v>
       </c>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56">
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42">
         <v>70</v>
       </c>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56">
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42">
         <v>40</v>
       </c>
-      <c r="AF8" s="57"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
+      <c r="AF8" s="43"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="14">
         <v>150</v>
       </c>
@@ -3091,52 +3235,52 @@
       <c r="J9" s="15">
         <v>30</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="48">
         <v>0.4</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="56" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42">
         <v>72</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42">
         <v>80</v>
       </c>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42">
         <v>50</v>
       </c>
-      <c r="U9" s="57"/>
-      <c r="W9" s="60" t="s">
+      <c r="U9" s="43"/>
+      <c r="W9" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="56">
+      <c r="X9" s="45"/>
+      <c r="Y9" s="42">
         <v>90</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56">
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42">
         <v>65</v>
       </c>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56">
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42">
         <v>70</v>
       </c>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56">
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42">
         <v>40</v>
       </c>
-      <c r="AF9" s="57"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
+      <c r="AF9" s="43"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="14">
         <v>140</v>
       </c>
@@ -3161,52 +3305,52 @@
       <c r="J10" s="15">
         <v>27</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="48">
         <v>0.5</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="56" t="s">
+      <c r="M10" s="45"/>
+      <c r="N10" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56">
+      <c r="O10" s="42"/>
+      <c r="P10" s="42">
         <v>68</v>
       </c>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42">
         <v>80</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56">
+      <c r="S10" s="42"/>
+      <c r="T10" s="42">
         <v>50</v>
       </c>
-      <c r="U10" s="57"/>
-      <c r="W10" s="60" t="s">
+      <c r="U10" s="43"/>
+      <c r="W10" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="56">
+      <c r="X10" s="45"/>
+      <c r="Y10" s="42">
         <v>90</v>
       </c>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56">
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42">
         <v>60</v>
       </c>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56">
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42">
         <v>70</v>
       </c>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56">
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42">
         <v>40</v>
       </c>
-      <c r="AF10" s="57"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
+      <c r="AF10" s="43"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="14">
         <v>130</v>
       </c>
@@ -3231,52 +3375,52 @@
       <c r="J11" s="15">
         <v>25.5</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="48">
         <v>0.6</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="56">
+      <c r="M11" s="45"/>
+      <c r="N11" s="42">
         <v>105</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42">
         <v>64</v>
       </c>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56">
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42">
         <v>74</v>
       </c>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42">
         <v>47</v>
       </c>
-      <c r="U11" s="57"/>
-      <c r="W11" s="60" t="s">
+      <c r="U11" s="43"/>
+      <c r="W11" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="56">
+      <c r="X11" s="45"/>
+      <c r="Y11" s="42">
         <v>84</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56" t="s">
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56">
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42">
         <v>65</v>
       </c>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56" t="s">
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AF11" s="57"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
+      <c r="AF11" s="43"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="14">
         <v>120</v>
       </c>
@@ -3301,52 +3445,52 @@
       <c r="J12" s="15">
         <v>24</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="48">
         <v>0.7</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="56" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56">
+      <c r="O12" s="42"/>
+      <c r="P12" s="42">
         <v>60</v>
       </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56">
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42">
         <v>68</v>
       </c>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56">
+      <c r="S12" s="42"/>
+      <c r="T12" s="42">
         <v>44</v>
       </c>
-      <c r="U12" s="57"/>
-      <c r="W12" s="60" t="s">
+      <c r="U12" s="43"/>
+      <c r="W12" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="56">
+      <c r="X12" s="45"/>
+      <c r="Y12" s="42">
         <v>78</v>
       </c>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56">
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42">
         <v>53</v>
       </c>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56">
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42">
         <v>60</v>
       </c>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56">
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42">
         <v>35</v>
       </c>
-      <c r="AF12" s="57"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+      <c r="AF12" s="43"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="14">
         <v>110</v>
       </c>
@@ -3371,52 +3515,52 @@
       <c r="J13" s="15">
         <v>22.5</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="48">
         <v>0.8</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="56">
+      <c r="M13" s="45"/>
+      <c r="N13" s="42">
         <v>90</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42">
         <v>56</v>
       </c>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42">
         <v>62</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42">
         <v>41</v>
       </c>
-      <c r="U13" s="57"/>
-      <c r="W13" s="60" t="s">
+      <c r="U13" s="43"/>
+      <c r="W13" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="56">
+      <c r="X13" s="45"/>
+      <c r="Y13" s="42">
         <v>72</v>
       </c>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56" t="s">
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56">
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42">
         <v>55</v>
       </c>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56" t="s">
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="AF13" s="57"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
+      <c r="AF13" s="43"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="14">
         <v>100</v>
       </c>
@@ -3441,52 +3585,52 @@
       <c r="J14" s="15">
         <v>21</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="48">
         <v>0.9</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="56" t="s">
+      <c r="M14" s="45"/>
+      <c r="N14" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56">
+      <c r="O14" s="42"/>
+      <c r="P14" s="42">
         <v>52</v>
       </c>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56">
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42">
         <v>56</v>
       </c>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56">
+      <c r="S14" s="42"/>
+      <c r="T14" s="42">
         <v>38</v>
       </c>
-      <c r="U14" s="57"/>
-      <c r="W14" s="60" t="s">
+      <c r="U14" s="43"/>
+      <c r="W14" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="56">
+      <c r="X14" s="45"/>
+      <c r="Y14" s="42">
         <v>66</v>
       </c>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56">
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42">
         <v>46</v>
       </c>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56">
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42">
         <v>50</v>
       </c>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56">
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42">
         <v>30</v>
       </c>
-      <c r="AF14" s="57"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="58">
+      <c r="AF14" s="43"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="14">
         <v>90</v>
       </c>
@@ -3511,52 +3655,52 @@
       <c r="J15" s="15">
         <v>19.5</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="48">
         <v>1</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="56">
+      <c r="M15" s="45"/>
+      <c r="N15" s="42">
         <v>75</v>
       </c>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42">
         <v>48</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42">
         <v>50</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56">
+      <c r="S15" s="42"/>
+      <c r="T15" s="42">
         <v>35</v>
       </c>
-      <c r="U15" s="57"/>
-      <c r="W15" s="60">
+      <c r="U15" s="43"/>
+      <c r="W15" s="48">
         <v>1</v>
       </c>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="56">
+      <c r="X15" s="45"/>
+      <c r="Y15" s="42">
         <v>60</v>
       </c>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56" t="s">
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56">
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42">
         <v>45</v>
       </c>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="62" t="s">
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="AF15" s="63"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
+      <c r="AF15" s="47"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="14">
         <v>80</v>
       </c>
@@ -3581,52 +3725,52 @@
       <c r="J16" s="15">
         <v>18</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="48">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="56" t="s">
+      <c r="M16" s="45"/>
+      <c r="N16" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42">
         <v>44</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56">
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42">
         <v>44</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42">
         <v>32</v>
       </c>
-      <c r="U16" s="57"/>
-      <c r="W16" s="64">
+      <c r="U16" s="43"/>
+      <c r="W16" s="44">
         <v>44927</v>
       </c>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="56">
+      <c r="X16" s="45"/>
+      <c r="Y16" s="42">
         <v>54</v>
       </c>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56">
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42">
         <v>39</v>
       </c>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56">
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42">
         <v>40</v>
       </c>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="62">
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="46">
         <v>25</v>
       </c>
-      <c r="AF16" s="63"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+      <c r="AF16" s="47"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="14">
         <v>70</v>
       </c>
@@ -3651,52 +3795,52 @@
       <c r="J17" s="15">
         <v>16.5</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="48">
         <v>1.2</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="56">
+      <c r="M17" s="45"/>
+      <c r="N17" s="42">
         <v>60</v>
       </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56">
+      <c r="O17" s="42"/>
+      <c r="P17" s="42">
         <v>40</v>
       </c>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42">
         <v>38</v>
       </c>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56">
+      <c r="S17" s="42"/>
+      <c r="T17" s="42">
         <v>29</v>
       </c>
-      <c r="U17" s="57"/>
-      <c r="W17" s="64">
+      <c r="U17" s="43"/>
+      <c r="W17" s="44">
         <v>44958</v>
       </c>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="56">
+      <c r="X17" s="45"/>
+      <c r="Y17" s="42">
         <v>48</v>
       </c>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56" t="s">
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56">
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42">
         <v>35</v>
       </c>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="62" t="s">
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AF17" s="63"/>
-    </row>
-    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="58" t="s">
+      <c r="AF17" s="47"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="16">
         <v>60</v>
       </c>
@@ -3721,110 +3865,121 @@
       <c r="J18" s="17">
         <v>0</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="41">
         <v>1.3</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67" t="s">
+      <c r="M18" s="36"/>
+      <c r="N18" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67">
+      <c r="O18" s="37"/>
+      <c r="P18" s="37">
         <v>36</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67">
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37">
         <v>32</v>
       </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67">
+      <c r="S18" s="37"/>
+      <c r="T18" s="37">
         <v>26</v>
       </c>
-      <c r="U18" s="68"/>
-      <c r="W18" s="65">
+      <c r="U18" s="38"/>
+      <c r="W18" s="35">
         <v>44986</v>
       </c>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="67">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37">
         <v>42</v>
       </c>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67">
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37">
         <v>32</v>
       </c>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67">
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37">
         <v>30</v>
       </c>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67">
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37">
         <v>20</v>
       </c>
-      <c r="AF18" s="68"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF18" s="38"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AE21" s="18"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AE23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="W1:AF2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="N3:Q6"/>
+    <mergeCell ref="R3:U6"/>
+    <mergeCell ref="W3:X7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y3:AB6"/>
+    <mergeCell ref="AC3:AF6"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="A13:B13"/>
@@ -3849,74 +4004,711 @@
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y3:AB6"/>
-    <mergeCell ref="AC3:AF6"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="W1:AF2"/>
-    <mergeCell ref="A3:B7"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="N3:Q6"/>
-    <mergeCell ref="R3:U6"/>
-    <mergeCell ref="W3:X7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20D02B6-AF54-4EE0-B4EC-A24F75483479}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>15</v>
+      </c>
+      <c r="B2" s="25">
+        <v>12</v>
+      </c>
+      <c r="C2" s="26">
+        <v>30</v>
+      </c>
+      <c r="D2" s="26">
+        <v>60</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>30</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="19">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19">
+        <v>30</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>45</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="19">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>90</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>120</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>25</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>35</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>75</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>100</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>10000000</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>30</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>40</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>60</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>80</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>10000000</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>